--- a/curation/combined_curation_quotes_20250114.xlsx
+++ b/curation/combined_curation_quotes_20250114.xlsx
@@ -546,12 +546,12 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>#curated NO</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>#curated INTERESTING</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>#curated NO</t>
         </is>
       </c>
     </row>
@@ -591,13 +591,13 @@
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -637,10 +637,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -758,13 +758,13 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -821,13 +821,13 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -883,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -925,13 +925,13 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1032,10 +1032,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1151,13 +1151,13 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>2</v>
-      </c>
-      <c r="X12" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1213,10 +1213,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1357,13 +1357,13 @@
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1405,10 +1405,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>2</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1463,13 +1463,13 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1568,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1627,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1687,13 +1687,13 @@
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1794,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1853,10 +1853,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1909,7 +1909,7 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2031,13 +2031,13 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2093,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2152,10 +2152,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2211,10 +2211,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>2</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2315,10 +2315,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2357,13 +2357,13 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2418,13 +2418,13 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2466,10 +2466,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
         <v>2</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2509,10 +2509,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -2570,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2629,10 +2629,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2688,10 +2688,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -2749,10 +2749,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>2</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2808,10 +2808,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2851,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2894,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2952,13 +2952,13 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -3013,13 +3013,13 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -3074,13 +3074,13 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -3135,13 +3135,13 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -3196,13 +3196,13 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -3257,13 +3257,13 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -3318,13 +3318,13 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -3381,13 +3381,13 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -3444,13 +3444,13 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -3505,13 +3505,13 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -3566,13 +3566,13 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -3626,10 +3626,10 @@
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -3666,7 +3666,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X57" t="n">
         <v>0</v>
@@ -3728,10 +3728,10 @@
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -3846,10 +3846,10 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3905,10 +3905,10 @@
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -3964,10 +3964,10 @@
         <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -4023,10 +4023,10 @@
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -4081,13 +4081,13 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="X65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -4202,10 +4202,10 @@
         <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -4261,10 +4261,10 @@
         <v>0</v>
       </c>
       <c r="X67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -4320,10 +4320,10 @@
         <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -4378,13 +4378,13 @@
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -4440,10 +4440,10 @@
         <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -4499,10 +4499,10 @@
         <v>0</v>
       </c>
       <c r="X71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -4558,10 +4558,10 @@
         <v>0</v>
       </c>
       <c r="X72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -4617,10 +4617,10 @@
         <v>0</v>
       </c>
       <c r="X73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -4676,10 +4676,10 @@
         <v>0</v>
       </c>
       <c r="X74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -4735,10 +4735,10 @@
         <v>0</v>
       </c>
       <c r="X75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -4794,10 +4794,10 @@
         <v>0</v>
       </c>
       <c r="X76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -4853,10 +4853,10 @@
         <v>0</v>
       </c>
       <c r="X77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -4896,10 +4896,10 @@
         <v>0</v>
       </c>
       <c r="X78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -4939,10 +4939,10 @@
         <v>0</v>
       </c>
       <c r="X79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -4997,13 +4997,13 @@
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -5061,10 +5061,10 @@
         <v>0</v>
       </c>
       <c r="X81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y81" t="n">
         <v>2</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -5104,10 +5104,10 @@
         <v>0</v>
       </c>
       <c r="X82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="X83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -5222,10 +5222,10 @@
         <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -5283,10 +5283,10 @@
         <v>0</v>
       </c>
       <c r="X85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y85" t="n">
         <v>2</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -5344,10 +5344,10 @@
         <v>0</v>
       </c>
       <c r="X86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y86" t="n">
         <v>2</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -5405,10 +5405,10 @@
         <v>0</v>
       </c>
       <c r="X87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y87" t="n">
         <v>2</v>
-      </c>
-      <c r="Y87" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -5466,10 +5466,10 @@
         <v>0</v>
       </c>
       <c r="X88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y88" t="n">
         <v>2</v>
-      </c>
-      <c r="Y88" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -5525,10 +5525,10 @@
         <v>0</v>
       </c>
       <c r="X89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -5626,7 +5626,7 @@
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X91" t="n">
         <v>0</v>
@@ -5688,10 +5688,10 @@
         <v>0</v>
       </c>
       <c r="X92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -5728,7 +5728,7 @@
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr"/>
       <c r="W93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X93" t="n">
         <v>0</v>
@@ -5774,10 +5774,10 @@
         <v>0</v>
       </c>
       <c r="X94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -5830,7 +5830,7 @@
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
       <c r="W95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X95" t="n">
         <v>0</v>
@@ -5889,7 +5889,7 @@
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
       <c r="W96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X96" t="n">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="X97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -6010,10 +6010,10 @@
         <v>0</v>
       </c>
       <c r="X98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -6050,7 +6050,7 @@
       <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr"/>
       <c r="W99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X99" t="n">
         <v>0</v>
@@ -6093,7 +6093,7 @@
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr"/>
       <c r="W100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X100" t="n">
         <v>0</v>
@@ -6154,13 +6154,13 @@
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -6216,10 +6216,10 @@
         <v>0</v>
       </c>
       <c r="X102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -6275,10 +6275,10 @@
         <v>0</v>
       </c>
       <c r="X103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -6334,10 +6334,10 @@
         <v>0</v>
       </c>
       <c r="X104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -6395,10 +6395,10 @@
         <v>0</v>
       </c>
       <c r="X105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y105" t="n">
         <v>2</v>
-      </c>
-      <c r="Y105" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -6456,10 +6456,10 @@
         <v>0</v>
       </c>
       <c r="X106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y106" t="n">
         <v>2</v>
-      </c>
-      <c r="Y106" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -6515,10 +6515,10 @@
         <v>0</v>
       </c>
       <c r="X107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -6574,10 +6574,10 @@
         <v>0</v>
       </c>
       <c r="X108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -6633,10 +6633,10 @@
         <v>0</v>
       </c>
       <c r="X109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -6694,10 +6694,10 @@
         <v>0</v>
       </c>
       <c r="X110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y110" t="n">
         <v>2</v>
-      </c>
-      <c r="Y110" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -6753,10 +6753,10 @@
         <v>0</v>
       </c>
       <c r="X111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -6812,10 +6812,10 @@
         <v>0</v>
       </c>
       <c r="X112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="X113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -6930,10 +6930,10 @@
         <v>0</v>
       </c>
       <c r="X114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -6989,10 +6989,10 @@
         <v>0</v>
       </c>
       <c r="X115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -7048,10 +7048,10 @@
         <v>0</v>
       </c>
       <c r="X116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -7107,10 +7107,10 @@
         <v>0</v>
       </c>
       <c r="X117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -7150,10 +7150,10 @@
         <v>0</v>
       </c>
       <c r="X118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="X119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -7252,10 +7252,10 @@
         <v>0</v>
       </c>
       <c r="X120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -7311,10 +7311,10 @@
         <v>0</v>
       </c>
       <c r="X121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -7354,10 +7354,10 @@
         <v>0</v>
       </c>
       <c r="X122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -7397,10 +7397,10 @@
         <v>0</v>
       </c>
       <c r="X123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -7440,10 +7440,10 @@
         <v>0</v>
       </c>
       <c r="X124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -7499,10 +7499,10 @@
         <v>0</v>
       </c>
       <c r="X125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -7542,10 +7542,10 @@
         <v>0</v>
       </c>
       <c r="X126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -7585,10 +7585,10 @@
         <v>0</v>
       </c>
       <c r="X127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -7628,10 +7628,10 @@
         <v>0</v>
       </c>
       <c r="X128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -7687,10 +7687,10 @@
         <v>0</v>
       </c>
       <c r="X129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -7746,10 +7746,10 @@
         <v>0</v>
       </c>
       <c r="X130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -7805,10 +7805,10 @@
         <v>0</v>
       </c>
       <c r="X131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -7864,10 +7864,10 @@
         <v>0</v>
       </c>
       <c r="X132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -7924,13 +7924,13 @@
       <c r="U133" t="inlineStr"/>
       <c r="V133" t="inlineStr"/>
       <c r="W133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -7983,7 +7983,7 @@
       <c r="U134" t="inlineStr"/>
       <c r="V134" t="inlineStr"/>
       <c r="W134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X134" t="n">
         <v>0</v>
@@ -8031,10 +8031,10 @@
         <v>0</v>
       </c>
       <c r="X135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y135" t="n">
         <v>2</v>
-      </c>
-      <c r="Y135" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -8090,10 +8090,10 @@
         <v>0</v>
       </c>
       <c r="X136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -8133,10 +8133,10 @@
         <v>0</v>
       </c>
       <c r="X137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -8192,10 +8192,10 @@
         <v>0</v>
       </c>
       <c r="X138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -8250,13 +8250,13 @@
       <c r="U139" t="inlineStr"/>
       <c r="V139" t="inlineStr"/>
       <c r="W139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="X140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -8371,10 +8371,10 @@
         <v>0</v>
       </c>
       <c r="X141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -8429,7 +8429,7 @@
       <c r="U142" t="inlineStr"/>
       <c r="V142" t="inlineStr"/>
       <c r="W142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X142" t="n">
         <v>0</v>
@@ -8491,10 +8491,10 @@
         <v>0</v>
       </c>
       <c r="X143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="X144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -8609,10 +8609,10 @@
         <v>0</v>
       </c>
       <c r="X145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -8668,10 +8668,10 @@
         <v>0</v>
       </c>
       <c r="X146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="X147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -8770,10 +8770,10 @@
         <v>0</v>
       </c>
       <c r="X148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -8810,7 +8810,7 @@
       <c r="U149" t="inlineStr"/>
       <c r="V149" t="inlineStr"/>
       <c r="W149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X149" t="n">
         <v>0</v>
@@ -8853,7 +8853,7 @@
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="inlineStr"/>
       <c r="W150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X150" t="n">
         <v>0</v>
@@ -8899,10 +8899,10 @@
         <v>0</v>
       </c>
       <c r="X151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -8942,10 +8942,10 @@
         <v>0</v>
       </c>
       <c r="X152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -9073,10 +9073,10 @@
         <v>0</v>
       </c>
       <c r="X155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -9204,10 +9204,10 @@
         <v>0</v>
       </c>
       <c r="X158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -9247,10 +9247,10 @@
         <v>0</v>
       </c>
       <c r="X159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -9290,10 +9290,10 @@
         <v>0</v>
       </c>
       <c r="X160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -9333,10 +9333,10 @@
         <v>0</v>
       </c>
       <c r="X161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -9392,10 +9392,10 @@
         <v>0</v>
       </c>
       <c r="X162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -9451,10 +9451,10 @@
         <v>0</v>
       </c>
       <c r="X163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -9510,10 +9510,10 @@
         <v>0</v>
       </c>
       <c r="X164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -9553,10 +9553,10 @@
         <v>0</v>
       </c>
       <c r="X165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -9595,13 +9595,13 @@
       <c r="U166" t="inlineStr"/>
       <c r="V166" t="inlineStr"/>
       <c r="W166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -9640,13 +9640,13 @@
       <c r="U167" t="inlineStr"/>
       <c r="V167" t="inlineStr"/>
       <c r="W167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -9685,13 +9685,13 @@
       <c r="U168" t="inlineStr"/>
       <c r="V168" t="inlineStr"/>
       <c r="W168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -9730,13 +9730,13 @@
       <c r="U169" t="inlineStr"/>
       <c r="V169" t="inlineStr"/>
       <c r="W169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -9773,7 +9773,7 @@
       <c r="U170" t="inlineStr"/>
       <c r="V170" t="inlineStr"/>
       <c r="W170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X170" t="n">
         <v>0</v>
@@ -9816,7 +9816,7 @@
       <c r="U171" t="inlineStr"/>
       <c r="V171" t="inlineStr"/>
       <c r="W171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X171" t="n">
         <v>0</v>
@@ -9859,7 +9859,7 @@
       <c r="U172" t="inlineStr"/>
       <c r="V172" t="inlineStr"/>
       <c r="W172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X172" t="n">
         <v>0</v>
@@ -9905,10 +9905,10 @@
         <v>0</v>
       </c>
       <c r="X173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -9993,10 +9993,10 @@
         <v>0</v>
       </c>
       <c r="X175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -10036,10 +10036,10 @@
         <v>0</v>
       </c>
       <c r="X176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -10079,10 +10079,10 @@
         <v>0</v>
       </c>
       <c r="X177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -10138,10 +10138,10 @@
         <v>0</v>
       </c>
       <c r="X178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -10196,7 +10196,7 @@
       <c r="U179" t="inlineStr"/>
       <c r="V179" t="inlineStr"/>
       <c r="W179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X179" t="n">
         <v>0</v>
@@ -10258,10 +10258,10 @@
         <v>0</v>
       </c>
       <c r="X180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -10317,10 +10317,10 @@
         <v>0</v>
       </c>
       <c r="X181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -10376,10 +10376,10 @@
         <v>0</v>
       </c>
       <c r="X182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -10435,10 +10435,10 @@
         <v>0</v>
       </c>
       <c r="X183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -10491,7 +10491,7 @@
       <c r="U184" t="inlineStr"/>
       <c r="V184" t="inlineStr"/>
       <c r="W184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X184" t="n">
         <v>0</v>
@@ -10550,7 +10550,7 @@
       <c r="U185" t="inlineStr"/>
       <c r="V185" t="inlineStr"/>
       <c r="W185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X185" t="n">
         <v>0</v>
@@ -10613,10 +10613,10 @@
         <v>1</v>
       </c>
       <c r="W186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y186" t="n">
         <v>1</v>
@@ -10678,13 +10678,13 @@
         <v>1</v>
       </c>
       <c r="W187" t="n">
+        <v>1</v>
+      </c>
+      <c r="X187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y187" t="n">
         <v>2</v>
-      </c>
-      <c r="X187" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y187" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -10737,7 +10737,7 @@
       <c r="U188" t="inlineStr"/>
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X188" t="n">
         <v>0</v>
@@ -10796,7 +10796,7 @@
       <c r="U189" t="inlineStr"/>
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X189" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>1</v>
       </c>
       <c r="W190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y190" t="n">
         <v>1</v>
@@ -10953,10 +10953,10 @@
         <v>1</v>
       </c>
       <c r="W192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y192" t="n">
         <v>1</v>
@@ -11016,10 +11016,10 @@
         <v>1</v>
       </c>
       <c r="W193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y193" t="n">
         <v>1</v>
@@ -11079,10 +11079,10 @@
         <v>1</v>
       </c>
       <c r="W194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y194" t="n">
         <v>1</v>
@@ -11141,10 +11141,10 @@
         <v>0</v>
       </c>
       <c r="X195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -11200,10 +11200,10 @@
         <v>0</v>
       </c>
       <c r="X196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -11260,13 +11260,13 @@
       </c>
       <c r="V197" t="inlineStr"/>
       <c r="W197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -11323,10 +11323,10 @@
         <v>1</v>
       </c>
       <c r="W198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y198" t="n">
         <v>1</v>
@@ -11386,10 +11386,10 @@
         <v>1</v>
       </c>
       <c r="W199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y199" t="n">
         <v>1</v>
@@ -11450,10 +11450,10 @@
         <v>0</v>
       </c>
       <c r="X200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -11510,10 +11510,10 @@
         <v>1</v>
       </c>
       <c r="W201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y201" t="n">
         <v>1</v>
@@ -11572,10 +11572,10 @@
         <v>0</v>
       </c>
       <c r="X202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -11634,13 +11634,13 @@
         <v>1</v>
       </c>
       <c r="W203" t="n">
+        <v>1</v>
+      </c>
+      <c r="X203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y203" t="n">
         <v>2</v>
-      </c>
-      <c r="X203" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y203" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -11697,10 +11697,10 @@
         <v>1</v>
       </c>
       <c r="W204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y204" t="n">
         <v>1</v>
@@ -11760,10 +11760,10 @@
         <v>1</v>
       </c>
       <c r="W205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y205" t="n">
         <v>1</v>
@@ -11822,10 +11822,10 @@
         <v>0</v>
       </c>
       <c r="X206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -11881,10 +11881,10 @@
         <v>0</v>
       </c>
       <c r="X207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -11937,7 +11937,7 @@
       <c r="U208" t="inlineStr"/>
       <c r="V208" t="inlineStr"/>
       <c r="W208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X208" t="n">
         <v>0</v>
@@ -11999,10 +11999,10 @@
         <v>0</v>
       </c>
       <c r="X209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -12058,10 +12058,10 @@
         <v>0</v>
       </c>
       <c r="X210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -12117,10 +12117,10 @@
         <v>0</v>
       </c>
       <c r="X211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -12160,10 +12160,10 @@
         <v>0</v>
       </c>
       <c r="X212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -12219,10 +12219,10 @@
         <v>0</v>
       </c>
       <c r="X213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -12263,13 +12263,13 @@
         <v>1</v>
       </c>
       <c r="W214" t="n">
+        <v>1</v>
+      </c>
+      <c r="X214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y214" t="n">
         <v>2</v>
-      </c>
-      <c r="X214" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y214" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -12327,10 +12327,10 @@
         <v>0</v>
       </c>
       <c r="X215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -12370,10 +12370,10 @@
         <v>0</v>
       </c>
       <c r="X216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -12412,13 +12412,13 @@
       </c>
       <c r="V217" t="inlineStr"/>
       <c r="W217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -12474,10 +12474,10 @@
         <v>0</v>
       </c>
       <c r="X218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -12532,13 +12532,13 @@
       </c>
       <c r="V219" t="inlineStr"/>
       <c r="W219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -12593,13 +12593,13 @@
       </c>
       <c r="V220" t="inlineStr"/>
       <c r="W220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -12655,10 +12655,10 @@
         <v>0</v>
       </c>
       <c r="X221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -12714,10 +12714,10 @@
         <v>0</v>
       </c>
       <c r="X222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -12756,13 +12756,13 @@
       </c>
       <c r="V223" t="inlineStr"/>
       <c r="W223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -12819,13 +12819,13 @@
       </c>
       <c r="V224" t="inlineStr"/>
       <c r="W224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -12882,10 +12882,10 @@
         <v>1</v>
       </c>
       <c r="W225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y225" t="n">
         <v>1</v>
@@ -12944,10 +12944,10 @@
         <v>0</v>
       </c>
       <c r="X226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -13004,10 +13004,10 @@
         <v>1</v>
       </c>
       <c r="W227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y227" t="n">
         <v>1</v>
@@ -13066,10 +13066,10 @@
         <v>0</v>
       </c>
       <c r="X228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -13122,7 +13122,7 @@
       <c r="U229" t="inlineStr"/>
       <c r="V229" t="inlineStr"/>
       <c r="W229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X229" t="n">
         <v>0</v>
@@ -13184,10 +13184,10 @@
         <v>0</v>
       </c>
       <c r="X230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -13243,10 +13243,10 @@
         <v>0</v>
       </c>
       <c r="X231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -13287,10 +13287,10 @@
         <v>1</v>
       </c>
       <c r="W232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y232" t="n">
         <v>1</v>
@@ -13348,13 +13348,13 @@
       </c>
       <c r="V233" t="inlineStr"/>
       <c r="W233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -13409,13 +13409,13 @@
       </c>
       <c r="V234" t="inlineStr"/>
       <c r="W234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -13470,13 +13470,13 @@
       </c>
       <c r="V235" t="inlineStr"/>
       <c r="W235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -13515,13 +13515,13 @@
       </c>
       <c r="V236" t="inlineStr"/>
       <c r="W236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -13577,10 +13577,10 @@
         <v>0</v>
       </c>
       <c r="X237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -13636,10 +13636,10 @@
         <v>0</v>
       </c>
       <c r="X238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -13696,13 +13696,13 @@
       </c>
       <c r="V239" t="inlineStr"/>
       <c r="W239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -13760,10 +13760,10 @@
         <v>0</v>
       </c>
       <c r="X240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -13818,13 +13818,13 @@
       </c>
       <c r="V241" t="inlineStr"/>
       <c r="W241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -13880,10 +13880,10 @@
         <v>0</v>
       </c>
       <c r="X242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -13939,10 +13939,10 @@
         <v>0</v>
       </c>
       <c r="X243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -13986,10 +13986,10 @@
         <v>2</v>
       </c>
       <c r="X244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -14046,10 +14046,10 @@
         <v>1</v>
       </c>
       <c r="W245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y245" t="n">
         <v>1</v>
@@ -14109,10 +14109,10 @@
         <v>1</v>
       </c>
       <c r="W246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y246" t="n">
         <v>1</v>
@@ -14156,10 +14156,10 @@
         <v>1</v>
       </c>
       <c r="W247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y247" t="n">
         <v>1</v>
@@ -14218,10 +14218,10 @@
         <v>0</v>
       </c>
       <c r="X248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -14280,13 +14280,13 @@
         <v>1</v>
       </c>
       <c r="W249" t="n">
+        <v>1</v>
+      </c>
+      <c r="X249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y249" t="n">
         <v>2</v>
-      </c>
-      <c r="X249" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y249" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -14327,10 +14327,10 @@
         <v>1</v>
       </c>
       <c r="W250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y250" t="n">
         <v>1</v>
@@ -14389,10 +14389,10 @@
         <v>0</v>
       </c>
       <c r="X251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -14448,10 +14448,10 @@
         <v>0</v>
       </c>
       <c r="X252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -14506,7 +14506,7 @@
       <c r="U253" t="inlineStr"/>
       <c r="V253" t="inlineStr"/>
       <c r="W253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X253" t="n">
         <v>0</v>
@@ -14571,13 +14571,13 @@
         <v>1</v>
       </c>
       <c r="W254" t="n">
+        <v>1</v>
+      </c>
+      <c r="X254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y254" t="n">
         <v>2</v>
-      </c>
-      <c r="X254" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y254" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -14699,10 +14699,10 @@
         <v>1</v>
       </c>
       <c r="W256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y256" t="n">
         <v>1</v>
@@ -14763,10 +14763,10 @@
         <v>0</v>
       </c>
       <c r="X257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -14821,13 +14821,13 @@
       </c>
       <c r="V258" t="inlineStr"/>
       <c r="W258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -14886,10 +14886,10 @@
         <v>1</v>
       </c>
       <c r="W259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y259" t="n">
         <v>1</v>
@@ -14954,10 +14954,10 @@
         <v>2</v>
       </c>
       <c r="X260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -15019,10 +15019,10 @@
         <v>2</v>
       </c>
       <c r="X261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -15077,7 +15077,7 @@
       <c r="U262" t="inlineStr"/>
       <c r="V262" t="inlineStr"/>
       <c r="W262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X262" t="n">
         <v>0</v>
@@ -15138,7 +15138,7 @@
       <c r="U263" t="inlineStr"/>
       <c r="V263" t="inlineStr"/>
       <c r="W263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X263" t="n">
         <v>0</v>
@@ -15199,7 +15199,7 @@
       <c r="U264" t="inlineStr"/>
       <c r="V264" t="inlineStr"/>
       <c r="W264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X264" t="n">
         <v>0</v>
@@ -15261,10 +15261,10 @@
         <v>0</v>
       </c>
       <c r="X265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -15320,10 +15320,10 @@
         <v>0</v>
       </c>
       <c r="X266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -15379,10 +15379,10 @@
         <v>0</v>
       </c>
       <c r="X267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -15438,10 +15438,10 @@
         <v>0</v>
       </c>
       <c r="X268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -15497,10 +15497,10 @@
         <v>0</v>
       </c>
       <c r="X269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -15556,10 +15556,10 @@
         <v>0</v>
       </c>
       <c r="X270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -15599,10 +15599,10 @@
         <v>0</v>
       </c>
       <c r="X271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -15642,10 +15642,10 @@
         <v>0</v>
       </c>
       <c r="X272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -15686,10 +15686,10 @@
         <v>1</v>
       </c>
       <c r="W273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y273" t="n">
         <v>1</v>
@@ -15749,10 +15749,10 @@
         <v>1</v>
       </c>
       <c r="W274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y274" t="n">
         <v>1</v>
@@ -15795,10 +15795,10 @@
         <v>0</v>
       </c>
       <c r="X275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -15854,10 +15854,10 @@
         <v>0</v>
       </c>
       <c r="X276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -15913,10 +15913,10 @@
         <v>0</v>
       </c>
       <c r="X277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -15972,10 +15972,10 @@
         <v>0</v>
       </c>
       <c r="X278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -16031,10 +16031,10 @@
         <v>0</v>
       </c>
       <c r="X279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -16087,7 +16087,7 @@
       <c r="U280" t="inlineStr"/>
       <c r="V280" t="inlineStr"/>
       <c r="W280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X280" t="n">
         <v>0</v>
@@ -16132,13 +16132,13 @@
       </c>
       <c r="V281" t="inlineStr"/>
       <c r="W281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -16178,10 +16178,10 @@
         <v>0</v>
       </c>
       <c r="X282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -16237,10 +16237,10 @@
         <v>0</v>
       </c>
       <c r="X283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -16296,10 +16296,10 @@
         <v>0</v>
       </c>
       <c r="X284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -16339,10 +16339,10 @@
         <v>0</v>
       </c>
       <c r="X285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -16379,7 +16379,7 @@
       </c>
       <c r="V286" t="inlineStr"/>
       <c r="W286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X286" t="n">
         <v>0</v>
@@ -16441,10 +16441,10 @@
         <v>0</v>
       </c>
       <c r="X287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -16500,10 +16500,10 @@
         <v>0</v>
       </c>
       <c r="X288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -16543,10 +16543,10 @@
         <v>0</v>
       </c>
       <c r="X289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -16583,7 +16583,7 @@
       </c>
       <c r="V290" t="inlineStr"/>
       <c r="W290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X290" t="n">
         <v>0</v>
@@ -16626,7 +16626,7 @@
       </c>
       <c r="V291" t="inlineStr"/>
       <c r="W291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X291" t="n">
         <v>0</v>
@@ -16688,10 +16688,10 @@
         <v>0</v>
       </c>
       <c r="X292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -16728,7 +16728,7 @@
       </c>
       <c r="V293" t="inlineStr"/>
       <c r="W293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X293" t="n">
         <v>0</v>
@@ -16787,7 +16787,7 @@
       </c>
       <c r="V294" t="inlineStr"/>
       <c r="W294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X294" t="n">
         <v>0</v>
@@ -16849,10 +16849,10 @@
         <v>0</v>
       </c>
       <c r="X295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -16905,7 +16905,7 @@
       </c>
       <c r="V296" t="inlineStr"/>
       <c r="W296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X296" t="n">
         <v>0</v>
@@ -16967,10 +16967,10 @@
         <v>0</v>
       </c>
       <c r="X297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -17023,7 +17023,7 @@
       </c>
       <c r="V298" t="inlineStr"/>
       <c r="W298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X298" t="n">
         <v>0</v>
@@ -17082,7 +17082,7 @@
       </c>
       <c r="V299" t="inlineStr"/>
       <c r="W299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X299" t="n">
         <v>0</v>
@@ -17141,7 +17141,7 @@
       </c>
       <c r="V300" t="inlineStr"/>
       <c r="W300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X300" t="n">
         <v>0</v>
@@ -17184,7 +17184,7 @@
       </c>
       <c r="V301" t="inlineStr"/>
       <c r="W301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X301" t="n">
         <v>0</v>
@@ -17227,7 +17227,7 @@
       </c>
       <c r="V302" t="inlineStr"/>
       <c r="W302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X302" t="n">
         <v>0</v>
@@ -17270,7 +17270,7 @@
       </c>
       <c r="V303" t="inlineStr"/>
       <c r="W303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X303" t="n">
         <v>0</v>
@@ -17313,7 +17313,7 @@
       </c>
       <c r="V304" t="inlineStr"/>
       <c r="W304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X304" t="n">
         <v>0</v>
@@ -17356,7 +17356,7 @@
       </c>
       <c r="V305" t="inlineStr"/>
       <c r="W305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X305" t="n">
         <v>0</v>
@@ -17399,7 +17399,7 @@
       </c>
       <c r="V306" t="inlineStr"/>
       <c r="W306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X306" t="n">
         <v>0</v>
@@ -17458,7 +17458,7 @@
       </c>
       <c r="V307" t="inlineStr"/>
       <c r="W307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X307" t="n">
         <v>0</v>
@@ -17504,10 +17504,10 @@
         <v>0</v>
       </c>
       <c r="X308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="V309" t="inlineStr"/>
       <c r="W309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X309" t="n">
         <v>0</v>
@@ -17603,7 +17603,7 @@
       </c>
       <c r="V310" t="inlineStr"/>
       <c r="W310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X310" t="n">
         <v>0</v>
@@ -17649,10 +17649,10 @@
         <v>0</v>
       </c>
       <c r="X311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -17705,7 +17705,7 @@
       </c>
       <c r="V312" t="inlineStr"/>
       <c r="W312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X312" t="n">
         <v>0</v>
@@ -17748,7 +17748,7 @@
       </c>
       <c r="V313" t="inlineStr"/>
       <c r="W313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X313" t="n">
         <v>0</v>
@@ -17807,7 +17807,7 @@
       </c>
       <c r="V314" t="inlineStr"/>
       <c r="W314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X314" t="n">
         <v>0</v>
@@ -17866,7 +17866,7 @@
       </c>
       <c r="V315" t="inlineStr"/>
       <c r="W315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X315" t="n">
         <v>0</v>
@@ -17909,7 +17909,7 @@
       </c>
       <c r="V316" t="inlineStr"/>
       <c r="W316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X316" t="n">
         <v>0</v>
@@ -17968,7 +17968,7 @@
       </c>
       <c r="V317" t="inlineStr"/>
       <c r="W317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X317" t="n">
         <v>0</v>
@@ -18027,7 +18027,7 @@
       </c>
       <c r="V318" t="inlineStr"/>
       <c r="W318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X318" t="n">
         <v>0</v>
@@ -18089,10 +18089,10 @@
         <v>0</v>
       </c>
       <c r="X319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -18129,7 +18129,7 @@
       </c>
       <c r="V320" t="inlineStr"/>
       <c r="W320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X320" t="n">
         <v>0</v>
@@ -18175,10 +18175,10 @@
         <v>0</v>
       </c>
       <c r="X321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -18215,7 +18215,7 @@
       </c>
       <c r="V322" t="inlineStr"/>
       <c r="W322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X322" t="n">
         <v>0</v>
@@ -18274,7 +18274,7 @@
       </c>
       <c r="V323" t="inlineStr"/>
       <c r="W323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X323" t="n">
         <v>0</v>
@@ -18333,7 +18333,7 @@
       </c>
       <c r="V324" t="inlineStr"/>
       <c r="W324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X324" t="n">
         <v>0</v>
@@ -18379,10 +18379,10 @@
         <v>0</v>
       </c>
       <c r="X325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -18419,7 +18419,7 @@
       </c>
       <c r="V326" t="inlineStr"/>
       <c r="W326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X326" t="n">
         <v>0</v>
@@ -18481,10 +18481,10 @@
         <v>0</v>
       </c>
       <c r="X327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -18537,7 +18537,7 @@
       </c>
       <c r="V328" t="inlineStr"/>
       <c r="W328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X328" t="n">
         <v>0</v>
@@ -18580,7 +18580,7 @@
       </c>
       <c r="V329" t="inlineStr"/>
       <c r="W329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X329" t="n">
         <v>0</v>
@@ -18642,10 +18642,10 @@
         <v>0</v>
       </c>
       <c r="X330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -18698,7 +18698,7 @@
       </c>
       <c r="V331" t="inlineStr"/>
       <c r="W331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X331" t="n">
         <v>0</v>
@@ -18741,7 +18741,7 @@
       </c>
       <c r="V332" t="inlineStr"/>
       <c r="W332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X332" t="n">
         <v>0</v>
@@ -18784,7 +18784,7 @@
       </c>
       <c r="V333" t="inlineStr"/>
       <c r="W333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X333" t="n">
         <v>0</v>
@@ -18845,7 +18845,7 @@
       </c>
       <c r="V334" t="inlineStr"/>
       <c r="W334" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X334" t="n">
         <v>0</v>
@@ -18891,10 +18891,10 @@
         <v>0</v>
       </c>
       <c r="X335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -18949,13 +18949,13 @@
         <v>1</v>
       </c>
       <c r="W336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -19011,10 +19011,10 @@
         <v>0</v>
       </c>
       <c r="X337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -19070,10 +19070,10 @@
         <v>0</v>
       </c>
       <c r="X338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -19129,10 +19129,10 @@
         <v>0</v>
       </c>
       <c r="X339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -19188,10 +19188,10 @@
         <v>0</v>
       </c>
       <c r="X340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -19231,10 +19231,10 @@
         <v>0</v>
       </c>
       <c r="X341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -19274,10 +19274,10 @@
         <v>0</v>
       </c>
       <c r="X342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -19330,7 +19330,7 @@
       </c>
       <c r="V343" t="inlineStr"/>
       <c r="W343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X343" t="n">
         <v>0</v>
@@ -19389,7 +19389,7 @@
       </c>
       <c r="V344" t="inlineStr"/>
       <c r="W344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X344" t="n">
         <v>0</v>
